--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/6/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/6/FD_Curve.xlsx
@@ -488,10 +488,10 @@
         <v>0.0899964</v>
       </c>
       <c r="B5" t="n">
-        <v>3.31075</v>
+        <v>3.30281</v>
       </c>
       <c r="C5" t="n">
-        <v>3310.75</v>
+        <v>3302.81</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.119974</v>
       </c>
       <c r="B6" t="n">
-        <v>3.78264</v>
+        <v>3.74636</v>
       </c>
       <c r="C6" t="n">
-        <v>3782.64</v>
+        <v>3746.36</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.149982</v>
       </c>
       <c r="B7" t="n">
-        <v>4.24036</v>
+        <v>4.20324</v>
       </c>
       <c r="C7" t="n">
-        <v>4240.36</v>
+        <v>4203.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.179934</v>
       </c>
       <c r="B8" t="n">
-        <v>4.51683</v>
+        <v>4.56831</v>
       </c>
       <c r="C8" t="n">
-        <v>4516.83</v>
+        <v>4568.31</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.209886</v>
       </c>
       <c r="B9" t="n">
-        <v>4.70905</v>
+        <v>4.932770000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>4709.05</v>
+        <v>4932.77</v>
       </c>
     </row>
     <row r="10">
@@ -543,1022 +543,1022 @@
         <v>0.239838</v>
       </c>
       <c r="B10" t="n">
-        <v>4.8347</v>
+        <v>5.21624</v>
       </c>
       <c r="C10" t="n">
-        <v>4834.7</v>
+        <v>5216.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269825</v>
+        <v>0.269756</v>
       </c>
       <c r="B11" t="n">
-        <v>4.9395</v>
+        <v>5.444520000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>4939.5</v>
+        <v>5444.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299785</v>
+        <v>0.299653</v>
       </c>
       <c r="B12" t="n">
-        <v>5.01585</v>
+        <v>5.6558</v>
       </c>
       <c r="C12" t="n">
-        <v>5015.85</v>
+        <v>5655.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329686</v>
+        <v>0.329554</v>
       </c>
       <c r="B13" t="n">
-        <v>5.08947</v>
+        <v>5.84288</v>
       </c>
       <c r="C13" t="n">
-        <v>5089.47</v>
+        <v>5842.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359587</v>
+        <v>0.359455</v>
       </c>
       <c r="B14" t="n">
-        <v>5.14398</v>
+        <v>5.98522</v>
       </c>
       <c r="C14" t="n">
-        <v>5143.98</v>
+        <v>5985.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389488</v>
+        <v>0.389356</v>
       </c>
       <c r="B15" t="n">
-        <v>5.195069999999999</v>
+        <v>6.14001</v>
       </c>
       <c r="C15" t="n">
-        <v>5195.07</v>
+        <v>6140.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419389</v>
+        <v>0.419257</v>
       </c>
       <c r="B16" t="n">
-        <v>5.24219</v>
+        <v>6.2702</v>
       </c>
       <c r="C16" t="n">
-        <v>5242.19</v>
+        <v>6270.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.44929</v>
+        <v>0.449158</v>
       </c>
       <c r="B17" t="n">
-        <v>5.28153</v>
+        <v>6.38262</v>
       </c>
       <c r="C17" t="n">
-        <v>5281.53</v>
+        <v>6382.62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479191</v>
+        <v>0.479059</v>
       </c>
       <c r="B18" t="n">
-        <v>5.31698</v>
+        <v>6.499510000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>5316.98</v>
+        <v>6499.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.509092</v>
+        <v>0.50896</v>
       </c>
       <c r="B19" t="n">
-        <v>5.34951</v>
+        <v>6.61217</v>
       </c>
       <c r="C19" t="n">
-        <v>5349.51</v>
+        <v>6612.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5389890000000001</v>
+        <v>0.538861</v>
       </c>
       <c r="B20" t="n">
-        <v>5.38018</v>
+        <v>6.7121</v>
       </c>
       <c r="C20" t="n">
-        <v>5380.18</v>
+        <v>6712.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.56889</v>
+        <v>0.568762</v>
       </c>
       <c r="B21" t="n">
-        <v>5.40616</v>
+        <v>6.80321</v>
       </c>
       <c r="C21" t="n">
-        <v>5406.16</v>
+        <v>6803.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.598904</v>
+        <v>0.598776</v>
       </c>
       <c r="B22" t="n">
-        <v>5.42854</v>
+        <v>6.89094</v>
       </c>
       <c r="C22" t="n">
-        <v>5428.54</v>
+        <v>6890.94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.629049</v>
+        <v>0.6289169999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>5.452</v>
+        <v>6.97402</v>
       </c>
       <c r="C23" t="n">
-        <v>5452</v>
+        <v>6974.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659189</v>
+        <v>0.659061</v>
       </c>
       <c r="B24" t="n">
-        <v>5.47104</v>
+        <v>7.05353</v>
       </c>
       <c r="C24" t="n">
-        <v>5471.04</v>
+        <v>7053.53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.68933</v>
+        <v>0.689202</v>
       </c>
       <c r="B25" t="n">
-        <v>5.489710000000001</v>
+        <v>7.13065</v>
       </c>
       <c r="C25" t="n">
-        <v>5489.71</v>
+        <v>7130.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7194739999999999</v>
+        <v>0.719342</v>
       </c>
       <c r="B26" t="n">
-        <v>5.50594</v>
+        <v>7.20396</v>
       </c>
       <c r="C26" t="n">
-        <v>5505.94</v>
+        <v>7203.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749615</v>
+        <v>0.749487</v>
       </c>
       <c r="B27" t="n">
-        <v>5.52158</v>
+        <v>7.27415</v>
       </c>
       <c r="C27" t="n">
-        <v>5521.58</v>
+        <v>7274.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779759</v>
+        <v>0.779627</v>
       </c>
       <c r="B28" t="n">
-        <v>5.53473</v>
+        <v>7.34024</v>
       </c>
       <c r="C28" t="n">
-        <v>5534.73</v>
+        <v>7340.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8099</v>
+        <v>0.809767</v>
       </c>
       <c r="B29" t="n">
-        <v>5.54774</v>
+        <v>7.40117</v>
       </c>
       <c r="C29" t="n">
-        <v>5547.74</v>
+        <v>7401.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.84004</v>
+        <v>0.839912</v>
       </c>
       <c r="B30" t="n">
-        <v>5.55904</v>
+        <v>7.45887</v>
       </c>
       <c r="C30" t="n">
-        <v>5559.04</v>
+        <v>7458.87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.870185</v>
+        <v>0.870052</v>
       </c>
       <c r="B31" t="n">
-        <v>5.56919</v>
+        <v>7.51704</v>
       </c>
       <c r="C31" t="n">
-        <v>5569.19</v>
+        <v>7517.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900325</v>
+        <v>0.900197</v>
       </c>
       <c r="B32" t="n">
-        <v>5.57868</v>
+        <v>7.576600000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>5578.68</v>
+        <v>7576.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.930465</v>
+        <v>0.930337</v>
       </c>
       <c r="B33" t="n">
-        <v>5.587020000000001</v>
+        <v>7.63087</v>
       </c>
       <c r="C33" t="n">
-        <v>5587.02</v>
+        <v>7630.87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.96061</v>
+        <v>0.9604780000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>5.594279999999999</v>
+        <v>7.67882</v>
       </c>
       <c r="C34" t="n">
-        <v>5594.28</v>
+        <v>7678.82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.99075</v>
+        <v>0.990622</v>
       </c>
       <c r="B35" t="n">
-        <v>5.6008</v>
+        <v>7.72949</v>
       </c>
       <c r="C35" t="n">
-        <v>5600.8</v>
+        <v>7729.49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.0209</v>
+        <v>1.02076</v>
       </c>
       <c r="B36" t="n">
-        <v>5.60657</v>
+        <v>7.78016</v>
       </c>
       <c r="C36" t="n">
-        <v>5606.57</v>
+        <v>7780.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05104</v>
+        <v>1.0509</v>
       </c>
       <c r="B37" t="n">
-        <v>5.611520000000001</v>
+        <v>7.823270000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>5611.52</v>
+        <v>7823.27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08118</v>
+        <v>1.08105</v>
       </c>
       <c r="B38" t="n">
-        <v>5.61561</v>
+        <v>7.86937</v>
       </c>
       <c r="C38" t="n">
-        <v>5615.61</v>
+        <v>7869.37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11132</v>
+        <v>1.11119</v>
       </c>
       <c r="B39" t="n">
-        <v>5.618939999999999</v>
+        <v>7.91359</v>
       </c>
       <c r="C39" t="n">
-        <v>5618.94</v>
+        <v>7913.59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14146</v>
+        <v>1.14133</v>
       </c>
       <c r="B40" t="n">
-        <v>5.62153</v>
+        <v>7.95253</v>
       </c>
       <c r="C40" t="n">
-        <v>5621.53</v>
+        <v>7952.53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.17127</v>
+        <v>1.17147</v>
       </c>
       <c r="B41" t="n">
-        <v>5.62341</v>
+        <v>7.99644</v>
       </c>
       <c r="C41" t="n">
-        <v>5623.41</v>
+        <v>7996.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.201</v>
+        <v>1.20161</v>
       </c>
       <c r="B42" t="n">
-        <v>5.62454</v>
+        <v>8.032030000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>5624.54</v>
+        <v>8032.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23073</v>
+        <v>1.23176</v>
       </c>
       <c r="B43" t="n">
-        <v>5.62491</v>
+        <v>8.07314</v>
       </c>
       <c r="C43" t="n">
-        <v>5624.91</v>
+        <v>8073.14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26045</v>
+        <v>1.2619</v>
       </c>
       <c r="B44" t="n">
-        <v>5.62458</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>5624.58</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29018</v>
+        <v>1.29204</v>
       </c>
       <c r="B45" t="n">
-        <v>5.62356</v>
+        <v>8.145199999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>5623.56</v>
+        <v>8145.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.31991</v>
+        <v>1.32218</v>
       </c>
       <c r="B46" t="n">
-        <v>5.62188</v>
+        <v>8.177350000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>5621.88</v>
+        <v>8177.35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.34964</v>
+        <v>1.35232</v>
       </c>
       <c r="B47" t="n">
-        <v>5.61954</v>
+        <v>8.21325</v>
       </c>
       <c r="C47" t="n">
-        <v>5619.54</v>
+        <v>8213.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.37937</v>
+        <v>1.38246</v>
       </c>
       <c r="B48" t="n">
-        <v>5.61653</v>
+        <v>8.243600000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>5616.53</v>
+        <v>8243.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4091</v>
+        <v>1.41261</v>
       </c>
       <c r="B49" t="n">
-        <v>5.61287</v>
+        <v>8.276430000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>5612.87</v>
+        <v>8276.43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.43883</v>
+        <v>1.44275</v>
       </c>
       <c r="B50" t="n">
-        <v>5.608560000000001</v>
+        <v>8.30705</v>
       </c>
       <c r="C50" t="n">
-        <v>5608.56</v>
+        <v>8307.049999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.46856</v>
+        <v>1.47289</v>
       </c>
       <c r="B51" t="n">
-        <v>5.60358</v>
+        <v>8.335900000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>5603.58</v>
+        <v>8335.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.49829</v>
+        <v>1.50303</v>
       </c>
       <c r="B52" t="n">
-        <v>5.59796</v>
+        <v>8.366520000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>5597.96</v>
+        <v>8366.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.52802</v>
+        <v>1.53317</v>
       </c>
       <c r="B53" t="n">
-        <v>5.59165</v>
+        <v>8.393049999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>5591.65</v>
+        <v>8393.049999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.55777</v>
+        <v>1.56332</v>
       </c>
       <c r="B54" t="n">
-        <v>5.58457</v>
+        <v>8.42074</v>
       </c>
       <c r="C54" t="n">
-        <v>5584.57</v>
+        <v>8420.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.58806</v>
+        <v>1.59346</v>
       </c>
       <c r="B55" t="n">
-        <v>5.57626</v>
+        <v>8.448309999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>5576.26</v>
+        <v>8448.309999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.61836</v>
+        <v>1.6236</v>
       </c>
       <c r="B56" t="n">
-        <v>5.56715</v>
+        <v>8.47293</v>
       </c>
       <c r="C56" t="n">
-        <v>5567.15</v>
+        <v>8472.93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.64865</v>
+        <v>1.65374</v>
       </c>
       <c r="B57" t="n">
-        <v>5.557390000000001</v>
+        <v>8.49858</v>
       </c>
       <c r="C57" t="n">
-        <v>5557.39</v>
+        <v>8498.58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.67894</v>
+        <v>1.68389</v>
       </c>
       <c r="B58" t="n">
-        <v>5.546930000000001</v>
+        <v>8.524000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>5546.93</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.70924</v>
+        <v>1.71403</v>
       </c>
       <c r="B59" t="n">
-        <v>5.53574</v>
+        <v>8.54701</v>
       </c>
       <c r="C59" t="n">
-        <v>5535.74</v>
+        <v>8547.01</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.73953</v>
+        <v>1.74417</v>
       </c>
       <c r="B60" t="n">
-        <v>5.52374</v>
+        <v>8.56997</v>
       </c>
       <c r="C60" t="n">
-        <v>5523.74</v>
+        <v>8569.969999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.76982</v>
+        <v>1.77431</v>
       </c>
       <c r="B61" t="n">
-        <v>5.510890000000001</v>
+        <v>8.59347</v>
       </c>
       <c r="C61" t="n">
-        <v>5510.89</v>
+        <v>8593.469999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80012</v>
+        <v>1.80446</v>
       </c>
       <c r="B62" t="n">
-        <v>5.49719</v>
+        <v>8.61539</v>
       </c>
       <c r="C62" t="n">
-        <v>5497.19</v>
+        <v>8615.389999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83041</v>
+        <v>1.8346</v>
       </c>
       <c r="B63" t="n">
-        <v>5.48248</v>
+        <v>8.636060000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>5482.48</v>
+        <v>8636.059999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.8607</v>
+        <v>1.86474</v>
       </c>
       <c r="B64" t="n">
-        <v>5.46658</v>
+        <v>8.65682</v>
       </c>
       <c r="C64" t="n">
-        <v>5466.58</v>
+        <v>8656.82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89099</v>
+        <v>1.89488</v>
       </c>
       <c r="B65" t="n">
-        <v>5.44965</v>
+        <v>8.677610000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>5449.65</v>
+        <v>8677.610000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92129</v>
+        <v>1.92502</v>
       </c>
       <c r="B66" t="n">
-        <v>5.43159</v>
+        <v>8.697450000000002</v>
       </c>
       <c r="C66" t="n">
-        <v>5431.59</v>
+        <v>8697.450000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95158</v>
+        <v>1.95516</v>
       </c>
       <c r="B67" t="n">
-        <v>5.412520000000001</v>
+        <v>8.716209999999998</v>
       </c>
       <c r="C67" t="n">
-        <v>5412.52</v>
+        <v>8716.209999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98187</v>
+        <v>1.98531</v>
       </c>
       <c r="B68" t="n">
-        <v>5.39233</v>
+        <v>8.7346</v>
       </c>
       <c r="C68" t="n">
-        <v>5392.33</v>
+        <v>8734.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01216</v>
+        <v>2.01522</v>
       </c>
       <c r="B69" t="n">
-        <v>5.371</v>
+        <v>8.75299</v>
       </c>
       <c r="C69" t="n">
-        <v>5371</v>
+        <v>8752.99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04203</v>
+        <v>2.04495</v>
       </c>
       <c r="B70" t="n">
-        <v>5.34849</v>
+        <v>8.77107</v>
       </c>
       <c r="C70" t="n">
-        <v>5348.49</v>
+        <v>8771.07</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.0719</v>
+        <v>2.07468</v>
       </c>
       <c r="B71" t="n">
-        <v>5.32476</v>
+        <v>8.78839</v>
       </c>
       <c r="C71" t="n">
-        <v>5324.76</v>
+        <v>8788.389999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10176</v>
+        <v>2.10441</v>
       </c>
       <c r="B72" t="n">
-        <v>5.29968</v>
+        <v>8.80489</v>
       </c>
       <c r="C72" t="n">
-        <v>5299.68</v>
+        <v>8804.889999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13163</v>
+        <v>2.13414</v>
       </c>
       <c r="B73" t="n">
-        <v>5.27329</v>
+        <v>8.82089</v>
       </c>
       <c r="C73" t="n">
-        <v>5273.29</v>
+        <v>8820.889999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.1615</v>
+        <v>2.16387</v>
       </c>
       <c r="B74" t="n">
-        <v>5.245640000000001</v>
+        <v>8.836590000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>5245.64</v>
+        <v>8836.59</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19138</v>
+        <v>2.1936</v>
       </c>
       <c r="B75" t="n">
-        <v>5.21686</v>
+        <v>8.85201</v>
       </c>
       <c r="C75" t="n">
-        <v>5216.86</v>
+        <v>8852.01</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22149</v>
+        <v>2.22333</v>
       </c>
       <c r="B76" t="n">
-        <v>5.186140000000001</v>
+        <v>8.86706</v>
       </c>
       <c r="C76" t="n">
-        <v>5186.14</v>
+        <v>8867.059999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25137</v>
+        <v>2.25306</v>
       </c>
       <c r="B77" t="n">
-        <v>5.1544</v>
+        <v>8.881629999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>5154.4</v>
+        <v>8881.629999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28154</v>
+        <v>2.28278</v>
       </c>
       <c r="B78" t="n">
-        <v>5.12063</v>
+        <v>8.89573</v>
       </c>
       <c r="C78" t="n">
-        <v>5120.63</v>
+        <v>8895.73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31133</v>
+        <v>2.31251</v>
       </c>
       <c r="B79" t="n">
-        <v>5.08575</v>
+        <v>8.90926</v>
       </c>
       <c r="C79" t="n">
-        <v>5085.75</v>
+        <v>8909.26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34165</v>
+        <v>2.34224</v>
       </c>
       <c r="B80" t="n">
-        <v>5.04875</v>
+        <v>8.922360000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>5048.75</v>
+        <v>8922.360000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37203</v>
+        <v>2.37284</v>
       </c>
       <c r="B81" t="n">
-        <v>5.00965</v>
+        <v>8.93539</v>
       </c>
       <c r="C81" t="n">
-        <v>5009.65</v>
+        <v>8935.389999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40191</v>
+        <v>2.40356</v>
       </c>
       <c r="B82" t="n">
-        <v>4.96957</v>
+        <v>8.948080000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>4969.57</v>
+        <v>8948.08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43132</v>
+        <v>2.43428</v>
       </c>
       <c r="B83" t="n">
-        <v>4.928649999999999</v>
+        <v>8.960450000000002</v>
       </c>
       <c r="C83" t="n">
-        <v>4928.65</v>
+        <v>8960.450000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.4618</v>
+        <v>2.465</v>
       </c>
       <c r="B84" t="n">
-        <v>4.88426</v>
+        <v>8.97245</v>
       </c>
       <c r="C84" t="n">
-        <v>4884.26</v>
+        <v>8972.450000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49209</v>
+        <v>2.49572</v>
       </c>
       <c r="B85" t="n">
-        <v>4.83842</v>
+        <v>8.984059999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>4838.42</v>
+        <v>8984.059999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52192</v>
+        <v>2.52644</v>
       </c>
       <c r="B86" t="n">
-        <v>4.79191</v>
+        <v>8.99526</v>
       </c>
       <c r="C86" t="n">
-        <v>4791.91</v>
+        <v>8995.26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55108</v>
+        <v>2.55716</v>
       </c>
       <c r="B87" t="n">
-        <v>4.7443</v>
+        <v>9.00609</v>
       </c>
       <c r="C87" t="n">
-        <v>4744.3</v>
+        <v>9006.09</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.58199</v>
+        <v>2.58788</v>
       </c>
       <c r="B88" t="n">
-        <v>4.69262</v>
+        <v>9.01647</v>
       </c>
       <c r="C88" t="n">
-        <v>4692.62</v>
+        <v>9016.469999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.61224</v>
+        <v>2.61835</v>
       </c>
       <c r="B89" t="n">
-        <v>4.64061</v>
+        <v>9.026490000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>4640.61</v>
+        <v>9026.49</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64155</v>
+        <v>2.64821</v>
       </c>
       <c r="B90" t="n">
-        <v>4.588550000000001</v>
+        <v>9.03609</v>
       </c>
       <c r="C90" t="n">
-        <v>4588.55</v>
+        <v>9036.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67132</v>
+        <v>2.67808</v>
       </c>
       <c r="B91" t="n">
-        <v>4.53497</v>
+        <v>9.045350000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>4534.97</v>
+        <v>9045.35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.70204</v>
+        <v>2.70795</v>
       </c>
       <c r="B92" t="n">
-        <v>4.47771</v>
+        <v>9.05423</v>
       </c>
       <c r="C92" t="n">
-        <v>4477.71</v>
+        <v>9054.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73223</v>
+        <v>2.73781</v>
       </c>
       <c r="B93" t="n">
-        <v>4.42081</v>
+        <v>9.06273</v>
       </c>
       <c r="C93" t="n">
-        <v>4420.81</v>
+        <v>9062.73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.76167</v>
+        <v>2.76768</v>
       </c>
       <c r="B94" t="n">
-        <v>4.36423</v>
+        <v>9.070920000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>4364.23</v>
+        <v>9070.92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.79107</v>
+        <v>2.79754</v>
       </c>
       <c r="B95" t="n">
-        <v>4.306649999999999</v>
+        <v>9.078719999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>4306.65</v>
+        <v>9078.719999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.82207</v>
+        <v>2.82741</v>
       </c>
       <c r="B96" t="n">
-        <v>4.24568</v>
+        <v>9.086200000000002</v>
       </c>
       <c r="C96" t="n">
-        <v>4245.68</v>
+        <v>9086.200000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85194</v>
+        <v>2.85728</v>
       </c>
       <c r="B97" t="n">
-        <v>4.18566</v>
+        <v>9.09328</v>
       </c>
       <c r="C97" t="n">
-        <v>4185.66</v>
+        <v>9093.280000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.88138</v>
+        <v>2.88714</v>
       </c>
       <c r="B98" t="n">
-        <v>4.126609999999999</v>
+        <v>9.100059999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>4126.61</v>
+        <v>9100.059999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.90986</v>
+        <v>2.91701</v>
       </c>
       <c r="B99" t="n">
-        <v>4.06871</v>
+        <v>9.106440000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>4068.71</v>
+        <v>9106.440000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94171</v>
+        <v>2.94688</v>
       </c>
       <c r="B100" t="n">
-        <v>4.00478</v>
+        <v>9.112500000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>4004.78</v>
+        <v>9112.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97211</v>
+        <v>2.97674</v>
       </c>
       <c r="B101" t="n">
-        <v>3.94231</v>
+        <v>9.118219999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>3942.31</v>
+        <v>9118.219999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.00251</v>
+        <v>3.00661</v>
       </c>
       <c r="B102" t="n">
-        <v>3.88135</v>
+        <v>9.1236</v>
       </c>
       <c r="C102" t="n">
-        <v>3881.35</v>
+        <v>9123.6</v>
       </c>
     </row>
   </sheetData>
